--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Inhba</t>
+  </si>
+  <si>
+    <t>Bambi</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhba</t>
-  </si>
-  <si>
-    <t>Bambi</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H2">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I2">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J2">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.821750333333334</v>
+        <v>1.560598</v>
       </c>
       <c r="N2">
-        <v>8.465251</v>
+        <v>4.681794</v>
       </c>
       <c r="O2">
-        <v>0.3192929084413148</v>
+        <v>0.2745629568248054</v>
       </c>
       <c r="P2">
-        <v>0.3317936578219594</v>
+        <v>0.2809670589136191</v>
       </c>
       <c r="Q2">
-        <v>0.7085866567053334</v>
+        <v>5.836031007976</v>
       </c>
       <c r="R2">
-        <v>6.377279910348</v>
+        <v>52.524279071784</v>
       </c>
       <c r="S2">
-        <v>0.007981249236252473</v>
+        <v>0.2523931177837887</v>
       </c>
       <c r="T2">
-        <v>0.0102511235885817</v>
+        <v>0.2582801147461383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H3">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I3">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J3">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.503965</v>
       </c>
       <c r="O3">
-        <v>0.09444472083406114</v>
+        <v>0.1468445715864098</v>
       </c>
       <c r="P3">
-        <v>0.0981423594419306</v>
+        <v>0.1502696790317216</v>
       </c>
       <c r="Q3">
-        <v>0.20959522498</v>
+        <v>3.12128585386</v>
       </c>
       <c r="R3">
-        <v>1.88635702482</v>
+        <v>28.09157268474</v>
       </c>
       <c r="S3">
-        <v>0.002360800494143992</v>
+        <v>0.1349874712923047</v>
       </c>
       <c r="T3">
-        <v>0.003032214245801214</v>
+        <v>0.13813601527968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H4">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I4">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J4">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.543255</v>
+        <v>1.885236333333333</v>
       </c>
       <c r="N4">
-        <v>4.629765</v>
+        <v>5.655709</v>
       </c>
       <c r="O4">
-        <v>0.1746257886800762</v>
+        <v>0.3316780247017838</v>
       </c>
       <c r="P4">
-        <v>0.1814626245820808</v>
+        <v>0.3394143193402541</v>
       </c>
       <c r="Q4">
-        <v>0.38753602258</v>
+        <v>7.050052414969333</v>
       </c>
       <c r="R4">
-        <v>3.48782420322</v>
+        <v>63.450471734724</v>
       </c>
       <c r="S4">
-        <v>0.004365057618525243</v>
+        <v>0.3048963768563576</v>
       </c>
       <c r="T4">
-        <v>0.005606483871664283</v>
+        <v>0.3120079972529264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H5">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I5">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J5">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.998892</v>
+        <v>0.388663</v>
       </c>
       <c r="N5">
-        <v>1.997784</v>
+        <v>0.777326</v>
       </c>
       <c r="O5">
-        <v>0.1130288275795113</v>
+        <v>0.06837921264053864</v>
       </c>
       <c r="P5">
-        <v>0.07830270607430131</v>
+        <v>0.04664942542048792</v>
       </c>
       <c r="Q5">
-        <v>0.250837763472</v>
+        <v>1.453448818756</v>
       </c>
       <c r="R5">
-        <v>1.505026580832</v>
+        <v>8.720692912535998</v>
       </c>
       <c r="S5">
-        <v>0.002825340682313627</v>
+        <v>0.06285787008390416</v>
       </c>
       <c r="T5">
-        <v>0.0024192467166409</v>
+        <v>0.04288267456345937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H6">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I6">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J6">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.638945333333333</v>
+        <v>1.014782666666667</v>
       </c>
       <c r="N6">
-        <v>7.916836</v>
+        <v>3.044348</v>
       </c>
       <c r="O6">
-        <v>0.2986077544650365</v>
+        <v>0.1785352342464625</v>
       </c>
       <c r="P6">
-        <v>0.310298652079728</v>
+        <v>0.1826995172939173</v>
       </c>
       <c r="Q6">
-        <v>0.6626813963253334</v>
+        <v>3.794893437658666</v>
       </c>
       <c r="R6">
-        <v>5.964132566928</v>
+        <v>34.154040938928</v>
       </c>
       <c r="S6">
-        <v>0.007464189931112034</v>
+        <v>0.1641192421834112</v>
       </c>
       <c r="T6">
-        <v>0.009587012159064483</v>
+        <v>0.1679472763575622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H7">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I7">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J7">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.821750333333334</v>
+        <v>1.560598</v>
       </c>
       <c r="N7">
-        <v>8.465251</v>
+        <v>4.681794</v>
       </c>
       <c r="O7">
-        <v>0.3192929084413148</v>
+        <v>0.2745629568248054</v>
       </c>
       <c r="P7">
-        <v>0.3317936578219594</v>
+        <v>0.2809670589136191</v>
       </c>
       <c r="Q7">
-        <v>10.55225140753733</v>
+        <v>0.381556847412</v>
       </c>
       <c r="R7">
-        <v>94.970262667836</v>
+        <v>3.434011626708</v>
       </c>
       <c r="S7">
-        <v>0.1188565261428208</v>
+        <v>0.01650133835794452</v>
       </c>
       <c r="T7">
-        <v>0.1526594274572038</v>
+        <v>0.01688622733447811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H8">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I8">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J8">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.503965</v>
       </c>
       <c r="O8">
-        <v>0.09444472083406114</v>
+        <v>0.1468445715864098</v>
       </c>
       <c r="P8">
-        <v>0.0981423594419306</v>
+        <v>0.1502696790317216</v>
       </c>
       <c r="Q8">
-        <v>3.12128585386</v>
+        <v>0.20406813957</v>
       </c>
       <c r="R8">
-        <v>28.09157268474</v>
+        <v>1.83661325613</v>
       </c>
       <c r="S8">
-        <v>0.03515697071276543</v>
+        <v>0.008825414723811119</v>
       </c>
       <c r="T8">
-        <v>0.0451556443244125</v>
+        <v>0.00903126498679277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H9">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I9">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J9">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.543255</v>
+        <v>1.885236333333333</v>
       </c>
       <c r="N9">
-        <v>4.629765</v>
+        <v>5.655709</v>
       </c>
       <c r="O9">
-        <v>0.1746257886800762</v>
+        <v>0.3316780247017838</v>
       </c>
       <c r="P9">
-        <v>0.1814626245820808</v>
+        <v>0.3394143193402541</v>
       </c>
       <c r="Q9">
-        <v>5.77117491706</v>
+        <v>0.460928972082</v>
       </c>
       <c r="R9">
-        <v>51.94057425354</v>
+        <v>4.148360748738</v>
       </c>
       <c r="S9">
-        <v>0.06500430817203372</v>
+        <v>0.01993397570740448</v>
       </c>
       <c r="T9">
-        <v>0.08349159099492749</v>
+        <v>0.02039892996395267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H10">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I10">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J10">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.998892</v>
+        <v>0.388663</v>
       </c>
       <c r="N10">
-        <v>1.997784</v>
+        <v>0.777326</v>
       </c>
       <c r="O10">
-        <v>0.1130288275795113</v>
+        <v>0.06837921264053864</v>
       </c>
       <c r="P10">
-        <v>0.07830270607430131</v>
+        <v>0.04664942542048792</v>
       </c>
       <c r="Q10">
-        <v>3.735468509904</v>
+        <v>0.09502577152199999</v>
       </c>
       <c r="R10">
-        <v>22.412811059424</v>
+        <v>0.570154629132</v>
       </c>
       <c r="S10">
-        <v>0.04207488937251401</v>
+        <v>0.004109616743205997</v>
       </c>
       <c r="T10">
-        <v>0.03602735011911193</v>
+        <v>0.00280364824872699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H11">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I11">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J11">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.638945333333333</v>
+        <v>1.014782666666667</v>
       </c>
       <c r="N11">
-        <v>7.916836</v>
+        <v>3.044348</v>
       </c>
       <c r="O11">
-        <v>0.2986077544650365</v>
+        <v>0.1785352342464625</v>
       </c>
       <c r="P11">
-        <v>0.310298652079728</v>
+        <v>0.1826995172939173</v>
       </c>
       <c r="Q11">
-        <v>9.868631635877334</v>
+        <v>0.248108273304</v>
       </c>
       <c r="R11">
-        <v>88.81768472289599</v>
+        <v>2.232974459736</v>
       </c>
       <c r="S11">
-        <v>0.1111564943558584</v>
+        <v>0.01073003562893448</v>
       </c>
       <c r="T11">
-        <v>0.1427694998095838</v>
+        <v>0.01098031062735006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H12">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I12">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J12">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.821750333333334</v>
+        <v>1.560598</v>
       </c>
       <c r="N12">
-        <v>8.465251</v>
+        <v>4.681794</v>
       </c>
       <c r="O12">
-        <v>0.3192929084413148</v>
+        <v>0.2745629568248054</v>
       </c>
       <c r="P12">
-        <v>0.3317936578219594</v>
+        <v>0.2809670589136191</v>
       </c>
       <c r="Q12">
-        <v>0.1196582040518889</v>
+        <v>0.131071504824</v>
       </c>
       <c r="R12">
-        <v>1.076923836467</v>
+        <v>1.179643543416</v>
       </c>
       <c r="S12">
-        <v>0.001347784269804036</v>
+        <v>0.00566850068307216</v>
       </c>
       <c r="T12">
-        <v>0.001731095309961131</v>
+        <v>0.00580071683300264</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H13">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I13">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J13">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.503965</v>
       </c>
       <c r="O13">
-        <v>0.09444472083406114</v>
+        <v>0.1468445715864098</v>
       </c>
       <c r="P13">
-        <v>0.0981423594419306</v>
+        <v>0.1502696790317216</v>
       </c>
       <c r="Q13">
-        <v>0.03539410171166667</v>
+        <v>0.07010100414000001</v>
       </c>
       <c r="R13">
-        <v>0.318546915405</v>
+        <v>0.63090903726</v>
       </c>
       <c r="S13">
-        <v>0.0003986656319038695</v>
+        <v>0.003031685570293947</v>
       </c>
       <c r="T13">
-        <v>0.0005120464907427815</v>
+        <v>0.003102398765248846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H14">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I14">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J14">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.543255</v>
+        <v>1.885236333333333</v>
       </c>
       <c r="N14">
-        <v>4.629765</v>
+        <v>5.655709</v>
       </c>
       <c r="O14">
-        <v>0.1746257886800762</v>
+        <v>0.3316780247017838</v>
       </c>
       <c r="P14">
-        <v>0.1814626245820808</v>
+        <v>0.3394143193402541</v>
       </c>
       <c r="Q14">
-        <v>0.06544275711166667</v>
+        <v>0.158337229164</v>
       </c>
       <c r="R14">
-        <v>0.588984814005</v>
+        <v>1.425035062476</v>
       </c>
       <c r="S14">
-        <v>0.0007371221999075139</v>
+        <v>0.006847672138021742</v>
       </c>
       <c r="T14">
-        <v>0.0009467604064808231</v>
+        <v>0.007007392123375041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H15">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I15">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J15">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.998892</v>
+        <v>0.388663</v>
       </c>
       <c r="N15">
-        <v>1.997784</v>
+        <v>0.777326</v>
       </c>
       <c r="O15">
-        <v>0.1130288275795113</v>
+        <v>0.06837921264053864</v>
       </c>
       <c r="P15">
-        <v>0.07830270607430131</v>
+        <v>0.04664942542048792</v>
       </c>
       <c r="Q15">
-        <v>0.042358681188</v>
+        <v>0.032643028044</v>
       </c>
       <c r="R15">
-        <v>0.254152087128</v>
+        <v>0.195858168264</v>
       </c>
       <c r="S15">
-        <v>0.00047711199283982</v>
+        <v>0.00141172581342849</v>
       </c>
       <c r="T15">
-        <v>0.0004085353774761537</v>
+        <v>0.0009631026083015634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H16">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I16">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J16">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.638945333333333</v>
+        <v>1.014782666666667</v>
       </c>
       <c r="N16">
-        <v>7.916836</v>
+        <v>3.044348</v>
       </c>
       <c r="O16">
-        <v>0.2986077544650365</v>
+        <v>0.1785352342464625</v>
       </c>
       <c r="P16">
-        <v>0.310298652079728</v>
+        <v>0.1826995172939173</v>
       </c>
       <c r="Q16">
-        <v>0.1119062361568889</v>
+        <v>0.085229566608</v>
       </c>
       <c r="R16">
-        <v>1.007156125412</v>
+        <v>0.767066099472</v>
       </c>
       <c r="S16">
-        <v>0.001260469066707922</v>
+        <v>0.003685956434116786</v>
       </c>
       <c r="T16">
-        <v>0.001618947585763427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.754686</v>
-      </c>
-      <c r="H17">
-        <v>11.509372</v>
-      </c>
-      <c r="I17">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J17">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.821750333333334</v>
-      </c>
-      <c r="N17">
-        <v>8.465251</v>
-      </c>
-      <c r="O17">
-        <v>0.3192929084413148</v>
-      </c>
-      <c r="P17">
-        <v>0.3317936578219594</v>
-      </c>
-      <c r="Q17">
-        <v>16.23828713872867</v>
-      </c>
-      <c r="R17">
-        <v>97.42972283237199</v>
-      </c>
-      <c r="S17">
-        <v>0.1829018590706</v>
-      </c>
-      <c r="T17">
-        <v>0.1566128731993205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.754686</v>
-      </c>
-      <c r="H18">
-        <v>11.509372</v>
-      </c>
-      <c r="I18">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J18">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.834655</v>
-      </c>
-      <c r="N18">
-        <v>2.503965</v>
-      </c>
-      <c r="O18">
-        <v>0.09444472083406114</v>
-      </c>
-      <c r="P18">
-        <v>0.0981423594419306</v>
-      </c>
-      <c r="Q18">
-        <v>4.80317744333</v>
-      </c>
-      <c r="R18">
-        <v>28.81906465998</v>
-      </c>
-      <c r="S18">
-        <v>0.05410115465539238</v>
-      </c>
-      <c r="T18">
-        <v>0.04632504730698907</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.754686</v>
-      </c>
-      <c r="H19">
-        <v>11.509372</v>
-      </c>
-      <c r="I19">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J19">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.543255</v>
-      </c>
-      <c r="N19">
-        <v>4.629765</v>
-      </c>
-      <c r="O19">
-        <v>0.1746257886800762</v>
-      </c>
-      <c r="P19">
-        <v>0.1814626245820808</v>
-      </c>
-      <c r="Q19">
-        <v>8.88094794293</v>
-      </c>
-      <c r="R19">
-        <v>53.28568765757999</v>
-      </c>
-      <c r="S19">
-        <v>0.1000316027912222</v>
-      </c>
-      <c r="T19">
-        <v>0.08565378615325785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.754686</v>
-      </c>
-      <c r="H20">
-        <v>11.509372</v>
-      </c>
-      <c r="I20">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J20">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.998892</v>
-      </c>
-      <c r="N20">
-        <v>1.997784</v>
-      </c>
-      <c r="O20">
-        <v>0.1130288275795113</v>
-      </c>
-      <c r="P20">
-        <v>0.07830270607430131</v>
-      </c>
-      <c r="Q20">
-        <v>5.748309807911999</v>
-      </c>
-      <c r="R20">
-        <v>22.993239231648</v>
-      </c>
-      <c r="S20">
-        <v>0.06474676432302473</v>
-      </c>
-      <c r="T20">
-        <v>0.03696035619872716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.754686</v>
-      </c>
-      <c r="H21">
-        <v>11.509372</v>
-      </c>
-      <c r="I21">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J21">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.638945333333333</v>
-      </c>
-      <c r="N21">
-        <v>7.916836</v>
-      </c>
-      <c r="O21">
-        <v>0.2986077544650365</v>
-      </c>
-      <c r="P21">
-        <v>0.310298652079728</v>
-      </c>
-      <c r="Q21">
-        <v>15.18630176449867</v>
-      </c>
-      <c r="R21">
-        <v>91.11781058699199</v>
-      </c>
-      <c r="S21">
-        <v>0.1710526979480056</v>
-      </c>
-      <c r="T21">
-        <v>0.1464668245050047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.774514</v>
-      </c>
-      <c r="I22">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J22">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.821750333333334</v>
-      </c>
-      <c r="N22">
-        <v>8.465251</v>
-      </c>
-      <c r="O22">
-        <v>0.3192929084413148</v>
-      </c>
-      <c r="P22">
-        <v>0.3317936578219594</v>
-      </c>
-      <c r="Q22">
-        <v>0.7284950458904446</v>
-      </c>
-      <c r="R22">
-        <v>6.556455413014</v>
-      </c>
-      <c r="S22">
-        <v>0.008205489721837515</v>
-      </c>
-      <c r="T22">
-        <v>0.01053913826689228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.774514</v>
-      </c>
-      <c r="I23">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J23">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.834655</v>
-      </c>
-      <c r="N23">
-        <v>2.503965</v>
-      </c>
-      <c r="O23">
-        <v>0.09444472083406114</v>
-      </c>
-      <c r="P23">
-        <v>0.0981423594419306</v>
-      </c>
-      <c r="Q23">
-        <v>0.2154839942233334</v>
-      </c>
-      <c r="R23">
-        <v>1.93935594801</v>
-      </c>
-      <c r="S23">
-        <v>0.002427129339855472</v>
-      </c>
-      <c r="T23">
-        <v>0.003117407073985039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.774514</v>
-      </c>
-      <c r="I24">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J24">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.543255</v>
-      </c>
-      <c r="N24">
-        <v>4.629765</v>
-      </c>
-      <c r="O24">
-        <v>0.1746257886800762</v>
-      </c>
-      <c r="P24">
-        <v>0.1814626245820808</v>
-      </c>
-      <c r="Q24">
-        <v>0.3984242010233334</v>
-      </c>
-      <c r="R24">
-        <v>3.58581780921</v>
-      </c>
-      <c r="S24">
-        <v>0.004487697898387545</v>
-      </c>
-      <c r="T24">
-        <v>0.005764003155750319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.774514</v>
-      </c>
-      <c r="I25">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J25">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.998892</v>
-      </c>
-      <c r="N25">
-        <v>1.997784</v>
-      </c>
-      <c r="O25">
-        <v>0.1130288275795113</v>
-      </c>
-      <c r="P25">
-        <v>0.07830270607430131</v>
-      </c>
-      <c r="Q25">
-        <v>0.257885279496</v>
-      </c>
-      <c r="R25">
-        <v>1.547311676976</v>
-      </c>
-      <c r="S25">
-        <v>0.002904721208819107</v>
-      </c>
-      <c r="T25">
-        <v>0.002487217662345172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.774514</v>
-      </c>
-      <c r="I26">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J26">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.638945333333333</v>
-      </c>
-      <c r="N26">
-        <v>7.916836</v>
-      </c>
-      <c r="O26">
-        <v>0.2986077544650365</v>
-      </c>
-      <c r="P26">
-        <v>0.310298652079728</v>
-      </c>
-      <c r="Q26">
-        <v>0.6813000353004446</v>
-      </c>
-      <c r="R26">
-        <v>6.131700317704</v>
-      </c>
-      <c r="S26">
-        <v>0.007673903163352537</v>
-      </c>
-      <c r="T26">
-        <v>0.009856368020311555</v>
+        <v>0.003771930309005035</v>
       </c>
     </row>
   </sheetData>
